--- a/Результаты ТО.xlsx
+++ b/Результаты ТО.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Результаты ТО" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,15 +424,40 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Дата</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Марка техники</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Машиночасы</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Номер ТО</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Инвентарный номер</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>Работы</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Количество план</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Количество факт</t>
         </is>
@@ -441,15 +466,40 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>22.03.2023</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>D375A-6/6R</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10150</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ТО-250 (первые)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>Фильтр воздушный</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -458,15 +508,40 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>22.03.2023</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>D375A-6/6R</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10150</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ТО-250 (первые)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>Фильтр гидравлический</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -475,15 +550,40 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>22.03.2023</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>D375A-6/6R</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10150</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ТО-250 (первые)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>Кольцо</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -492,15 +592,40 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>22.03.2023</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>D375A-6/6R</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10150</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ТО-250 (первые)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>Масло трансмиссионное</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>150.0</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>150</t>
         </is>
@@ -509,30 +634,80 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>22.03.2023</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>D375A-6/6R</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10150</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ТО-250 (первые)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>Фильтр сетчатый</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>22.03.2023</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>D375A-6/6R</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10150</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ТО-250 (первые)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>Масло трансмиссионное</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>138.0</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>138</t>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>130</t>
         </is>
       </c>
     </row>

--- a/Результаты ТО.xlsx
+++ b/Результаты ТО.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Результаты ТО" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,42 +434,42 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Дата</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Марка техники</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Машиночасы</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Номер ТО</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Инвентарный номер</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Работы</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Количество план</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Количество факт</t>
         </is>
@@ -466,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>22.03.2023</t>
+          <t>21.03.2023</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -474,41 +486,33 @@
           <t>D375A-6/6R</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>10150</t>
-        </is>
+      <c r="C2" t="n">
+        <v>154</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>ТО-250 (первые)</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
+      <c r="E2" t="n">
+        <v>15</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>Фильтр воздушный</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>22.03.2023</t>
+          <t>21.03.2023</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -516,41 +520,33 @@
           <t>D375A-6/6R</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>10150</t>
-        </is>
+      <c r="C3" t="n">
+        <v>154</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>ТО-250 (первые)</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
+      <c r="E3" t="n">
+        <v>15</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>Фильтр гидравлический</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>22.03.2023</t>
+          <t>21.03.2023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -558,41 +554,33 @@
           <t>D375A-6/6R</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>10150</t>
-        </is>
+      <c r="C4" t="n">
+        <v>154</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>ТО-250 (первые)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
+      <c r="E4" t="n">
+        <v>15</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>Кольцо</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>22.03.2023</t>
+          <t>21.03.2023</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -600,41 +588,31 @@
           <t>D375A-6/6R</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10150</t>
-        </is>
+      <c r="C5" t="n">
+        <v>154</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>ТО-250 (первые)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
+      <c r="E5" t="n">
+        <v>15</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>Масло трансмиссионное</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>150.0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
+      <c r="G5" t="n">
+        <v>150</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>22.03.2023</t>
+          <t>21.03.2023</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -642,37 +620,29 @@
           <t>D375A-6/6R</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>10150</t>
-        </is>
+      <c r="C6" t="n">
+        <v>154</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>ТО-250 (первые)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
+      <c r="E6" t="n">
+        <v>15</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>Фильтр сетчатый</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>22.03.2023</t>
+          <t>21.03.2023</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -680,34 +650,670 @@
           <t>D375A-6/6R</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>10150</t>
-        </is>
+      <c r="C7" t="n">
+        <v>154</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>ТО-250 (первые)</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
+      <c r="E7" t="n">
+        <v>15</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>Масло трансмиссионное</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G7" t="n">
+        <v>138</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>22.03.2023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>D375A-6/6R</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1545</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ТО-250 (первые)</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Фильтр воздушный</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>22.03.2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>D375A-6/6R</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1545</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ТО-250 (первые)</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Фильтр гидравлический</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>22.03.2023</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>D375A-6/6R</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1545</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ТО-250 (первые)</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Кольцо</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>22.03.2023</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>D375A-6/6R</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1545</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ТО-250 (первые)</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Масло трансмиссионное</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>150</v>
+      </c>
+      <c r="H11" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>22.03.2023</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>D375A-6/6R</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1545</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ТО-250 (первые)</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Фильтр сетчатый</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>22.03.2023</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>D375A-6/6R</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1545</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ТО-250 (первые)</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Масло трансмиссионное</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>138</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>22.03.2023</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>D375A-6/6R</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>154</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ТО-250 (первые)</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Фильтр воздушный</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>22.03.2023</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>D375A-6/6R</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>154</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ТО-250 (первые)</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Фильтр гидравлический</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>22.03.2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>D375A-6/6R</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>154</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ТО-250 (первые)</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Кольцо</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>22.03.2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>D375A-6/6R</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>154</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ТО-250 (первые)</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Масло трансмиссионное</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>150</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>22.03.2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>D375A-6/6R</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>154</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ТО-250 (первые)</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Фильтр сетчатый</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>22.03.2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>D375A-6/6R</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>154</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ТО-250 (первые)</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Масло трансмиссионное</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>138</v>
+      </c>
+      <c r="H19" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>22.03.2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>D375A-6/6R</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ТО-250 (первые)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Фильтр воздушный</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>22.03.2023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>D375A-6/6R</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ТО-250 (первые)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Фильтр гидравлический</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>22.03.2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>D375A-6/6R</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ТО-250 (первые)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Кольцо</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22.03.2023</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>D375A-6/6R</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ТО-250 (первые)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Масло трансмиссионное</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>22.03.2023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>D375A-6/6R</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ТО-250 (первые)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Фильтр сетчатый</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>22.03.2023</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>D375A-6/6R</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ТО-250 (первые)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Масло трансмиссионное</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>138.0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>130</t>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>90</t>
         </is>
       </c>
     </row>
